--- a/Maximum Data Rates/Overhead.xlsx
+++ b/Maximum Data Rates/Overhead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Data-Rates\Maximum Data Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AA0E6A11-99A9-4842-9C9D-46199E65D7F8}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{01530C83-3190-41D5-BC42-C86C730925E0}"/>
   <bookViews>
-    <workbookView xWindow="-17580" yWindow="885" windowWidth="16185" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,9 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -404,7 +402,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -415,7 +413,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
